--- a/set/payGo/capacity/1:3.5/amount/1.3C2(hub).xlsx
+++ b/set/payGo/capacity/1:3.5/amount/1.3C2(hub).xlsx
@@ -398,7 +398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="E2" t="n">
         <v>10.15</v>
@@ -437,11 +437,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E3" t="n">
         <v>10.15</v>
@@ -468,11 +468,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="E4" t="n">
         <v>10.15</v>
@@ -494,16 +494,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="E5" t="n">
         <v>10.15</v>
@@ -530,11 +530,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09</v>
+        <v>0.006</v>
       </c>
       <c r="E6" t="n">
         <v>10.15</v>
@@ -556,7 +556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E7" t="n">
         <v>10.15</v>
@@ -587,7 +587,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.006</v>
+        <v>0.062</v>
       </c>
       <c r="E8" t="n">
         <v>10.15</v>
@@ -618,16 +618,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.006</v>
+        <v>0.154</v>
       </c>
       <c r="E9" t="n">
         <v>10.15</v>
@@ -649,16 +649,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.005</v>
+        <v>0.214</v>
       </c>
       <c r="E10" t="n">
         <v>10.15</v>
@@ -680,16 +680,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E11" t="n">
         <v>10.15</v>
@@ -711,16 +711,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.033</v>
+        <v>0.1</v>
       </c>
       <c r="E12" t="n">
         <v>10.15</v>
@@ -742,7 +742,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.006</v>
+        <v>0.096</v>
       </c>
       <c r="E13" t="n">
         <v>10.15</v>
@@ -778,11 +778,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.006</v>
+        <v>0.034</v>
       </c>
       <c r="E14" t="n">
         <v>10.15</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.006</v>
+        <v>0.106</v>
       </c>
       <c r="E15" t="n">
         <v>10.15</v>
@@ -835,7 +835,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007</v>
+        <v>0.04</v>
       </c>
       <c r="E16" t="n">
         <v>10.15</v>
@@ -866,7 +866,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.106</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>5.58</v>
+        <v>10.15</v>
       </c>
       <c r="G17" t="n">
-        <v>5.58</v>
+        <v>10.15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -897,16 +897,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.104</v>
+        <v>0.074</v>
       </c>
       <c r="E18" t="n">
         <v>10.15</v>
@@ -928,16 +928,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E19" t="n">
         <v>10.15</v>
@@ -964,11 +964,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.12</v>
+        <v>0.007</v>
       </c>
       <c r="E20" t="n">
         <v>10.15</v>
@@ -990,16 +990,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E21" t="n">
         <v>10.15</v>
@@ -1021,12 +1021,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1052,16 +1052,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E23" t="n">
         <v>10.15</v>
@@ -1083,16 +1083,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E24" t="n">
         <v>10.15</v>
@@ -1114,16 +1114,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="E25" t="n">
         <v>10.15</v>
@@ -1150,11 +1150,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E26" t="n">
         <v>10.15</v>
@@ -1176,16 +1176,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.031</v>
+        <v>0.006</v>
       </c>
       <c r="E27" t="n">
         <v>10.15</v>
@@ -1212,11 +1212,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E28" t="n">
         <v>10.15</v>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.022</v>
+        <v>0.006</v>
       </c>
       <c r="E29" t="n">
         <v>10.15</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.016</v>
+        <v>0.029</v>
       </c>
       <c r="E30" t="n">
         <v>10.15</v>
@@ -1300,16 +1300,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="E31" t="n">
         <v>10.15</v>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="E32" t="n">
         <v>10.15</v>
@@ -1362,7 +1362,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E33" t="n">
         <v>10.15</v>
@@ -1393,16 +1393,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E34" t="n">
         <v>10.15</v>
@@ -1424,7 +1424,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.018</v>
+        <v>0.008</v>
       </c>
       <c r="E35" t="n">
         <v>10.15</v>
@@ -1460,11 +1460,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="E36" t="n">
         <v>10.15</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.029</v>
+        <v>0.007</v>
       </c>
       <c r="E37" t="n">
         <v>10.15</v>
@@ -1517,7 +1517,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E38" t="n">
         <v>10.15</v>
@@ -1548,16 +1548,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="E39" t="n">
         <v>10.15</v>
@@ -1579,16 +1579,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.052</v>
+        <v>0.008</v>
       </c>
       <c r="E40" t="n">
         <v>10.15</v>
@@ -1615,11 +1615,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E41" t="n">
         <v>10.15</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.05</v>
+        <v>0.006</v>
       </c>
       <c r="E42" t="n">
         <v>10.15</v>
@@ -1672,12 +1672,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1703,12 +1703,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1734,16 +1734,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="E45" t="n">
         <v>10.15</v>
@@ -1765,16 +1765,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E46" t="n">
         <v>10.15</v>
@@ -1796,7 +1796,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1827,12 +1827,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1863,11 +1863,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E49" t="n">
         <v>10.15</v>
@@ -1889,16 +1889,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E50" t="n">
         <v>10.15</v>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.007</v>
+        <v>1.08</v>
       </c>
       <c r="E51" t="n">
         <v>10.15</v>
@@ -1951,16 +1951,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E52" t="n">
         <v>10.15</v>
@@ -1987,11 +1987,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E53" t="n">
         <v>10.15</v>
@@ -2013,12 +2013,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2049,11 +2049,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>10.15</v>
@@ -2075,7 +2075,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E58" t="n">
         <v>10.15</v>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2199,12 +2199,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2235,11 +2235,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E61" t="n">
         <v>10.15</v>
@@ -2261,16 +2261,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E62" t="n">
         <v>10.15</v>
@@ -2292,16 +2292,16 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E63" t="n">
         <v>10.15</v>
@@ -2323,7 +2323,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="E64" t="n">
         <v>10.15</v>
@@ -2354,12 +2354,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2416,16 +2416,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E67" t="n">
         <v>10.15</v>
@@ -2478,12 +2478,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2540,16 +2540,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E71" t="n">
         <v>10.15</v>
@@ -2571,16 +2571,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.007</v>
+        <v>0.032</v>
       </c>
       <c r="E72" t="n">
         <v>10.15</v>
@@ -2602,12 +2602,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2633,16 +2633,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E74" t="n">
         <v>10.15</v>
@@ -2664,16 +2664,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.006</v>
+        <v>0.032</v>
       </c>
       <c r="E75" t="n">
         <v>10.15</v>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E76" t="n">
         <v>10.15</v>
@@ -2726,16 +2726,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.008</v>
+        <v>0.017</v>
       </c>
       <c r="E77" t="n">
         <v>10.15</v>
@@ -2762,11 +2762,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.007</v>
+        <v>0.022</v>
       </c>
       <c r="E78" t="n">
         <v>10.15</v>
@@ -2788,7 +2788,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.006</v>
+        <v>0.025</v>
       </c>
       <c r="E79" t="n">
         <v>10.15</v>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E80" t="n">
         <v>10.15</v>
@@ -2850,7 +2850,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.007</v>
+        <v>0.032</v>
       </c>
       <c r="E81" t="n">
         <v>10.15</v>
@@ -2881,16 +2881,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E82" t="n">
         <v>10.15</v>
@@ -2917,11 +2917,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>10.15</v>
@@ -2943,16 +2943,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.033</v>
+        <v>0.01</v>
       </c>
       <c r="E84" t="n">
         <v>10.15</v>
@@ -2974,7 +2974,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.007</v>
+        <v>0.031</v>
       </c>
       <c r="E85" t="n">
         <v>10.15</v>
@@ -3005,12 +3005,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3036,16 +3036,16 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="E87" t="n">
         <v>10.15</v>
@@ -3072,11 +3072,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="E88" t="n">
         <v>10.15</v>
@@ -3103,11 +3103,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E89" t="n">
         <v>10.15</v>
@@ -3129,16 +3129,16 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.014</v>
+        <v>0.032</v>
       </c>
       <c r="E90" t="n">
         <v>10.15</v>
@@ -3160,16 +3160,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.016</v>
+        <v>0.052</v>
       </c>
       <c r="E91" t="n">
         <v>10.15</v>
@@ -3191,16 +3191,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.007</v>
+        <v>0.03</v>
       </c>
       <c r="E92" t="n">
         <v>10.15</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3258,11 +3258,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.007</v>
+        <v>0.031</v>
       </c>
       <c r="E94" t="n">
         <v>10.15</v>
@@ -3284,7 +3284,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.007</v>
+        <v>0.031</v>
       </c>
       <c r="E95" t="n">
         <v>10.15</v>
@@ -3315,16 +3315,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="E96" t="n">
         <v>10.15</v>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.007</v>
+        <v>0.033</v>
       </c>
       <c r="E97" t="n">
         <v>10.15</v>
@@ -3382,11 +3382,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.007</v>
+        <v>0.033</v>
       </c>
       <c r="E98" t="n">
         <v>10.15</v>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.008</v>
+        <v>0.036</v>
       </c>
       <c r="E99" t="n">
         <v>10.15</v>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>10.15</v>
@@ -3501,16 +3501,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E102" t="n">
         <v>10.15</v>
@@ -3537,11 +3537,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.007</v>
+        <v>0.033</v>
       </c>
       <c r="E103" t="n">
         <v>10.15</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3594,16 +3594,16 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E105" t="n">
         <v>10.15</v>
@@ -3625,12 +3625,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3656,12 +3656,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3718,7 +3718,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E109" t="n">
         <v>10.15</v>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E110" t="n">
         <v>10.15</v>
@@ -3785,11 +3785,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.007</v>
+        <v>0.032</v>
       </c>
       <c r="E111" t="n">
         <v>10.15</v>
@@ -3847,11 +3847,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E113" t="n">
         <v>10.15</v>
@@ -3873,16 +3873,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E114" t="n">
         <v>10.15</v>
@@ -3909,11 +3909,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E115" t="n">
         <v>10.15</v>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E116" t="n">
         <v>10.15</v>
@@ -3966,16 +3966,16 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E117" t="n">
         <v>10.15</v>
@@ -3997,16 +3997,16 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E118" t="n">
         <v>10.15</v>
@@ -4028,16 +4028,16 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E119" t="n">
         <v>10.15</v>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E120" t="n">
         <v>10.15</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E121" t="n">
         <v>10.15</v>
@@ -4121,12 +4121,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4152,12 +4152,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4183,12 +4183,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4245,7 +4245,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="E126" t="n">
         <v>10.15</v>
@@ -4276,7 +4276,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E127" t="n">
         <v>10.15</v>
@@ -4307,16 +4307,16 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E128" t="n">
         <v>10.15</v>
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E129" t="n">
         <v>10.15</v>
@@ -4369,12 +4369,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4400,12 +4400,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4431,7 +4431,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="E132" t="n">
         <v>10.15</v>
@@ -4462,7 +4462,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E133" t="n">
         <v>10.15</v>
@@ -4493,7 +4493,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E134" t="n">
         <v>10.15</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E135" t="n">
         <v>10.15</v>
@@ -4555,12 +4555,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4586,12 +4586,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4617,7 +4617,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E138" t="n">
         <v>10.15</v>
@@ -4648,16 +4648,16 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E139" t="n">
         <v>10.15</v>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="E140" t="n">
         <v>10.15</v>
@@ -4710,16 +4710,16 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E141" t="n">
         <v>10.15</v>
@@ -4746,11 +4746,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="E142" t="n">
         <v>10.15</v>
@@ -4772,16 +4772,16 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E143" t="n">
         <v>10.15</v>
@@ -4803,16 +4803,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E144" t="n">
         <v>10.15</v>
@@ -4834,7 +4834,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E145" t="n">
         <v>10.15</v>
@@ -4870,11 +4870,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E146" t="n">
         <v>10.15</v>
@@ -4901,11 +4901,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.016</v>
+        <v>0.007</v>
       </c>
       <c r="E147" t="n">
         <v>10.15</v>
@@ -4927,16 +4927,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.04</v>
+        <v>0.007</v>
       </c>
       <c r="E148" t="n">
         <v>10.15</v>
@@ -4958,7 +4958,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4994,11 +4994,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E150" t="n">
         <v>10.15</v>
@@ -5020,16 +5020,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="E151" t="n">
         <v>10.15</v>
@@ -5056,11 +5056,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E152" t="n">
         <v>10.15</v>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E153" t="n">
         <v>10.15</v>
@@ -5113,16 +5113,16 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E154" t="n">
         <v>10.15</v>
@@ -5144,7 +5144,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E155" t="n">
         <v>10.15</v>
@@ -5175,7 +5175,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="E156" t="n">
         <v>10.15</v>
@@ -5206,16 +5206,16 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E157" t="n">
         <v>10.15</v>
@@ -5242,11 +5242,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E158" t="n">
         <v>10.15</v>
@@ -5273,11 +5273,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="E159" t="n">
         <v>10.15</v>
@@ -5304,11 +5304,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.007</v>
+        <v>0.029</v>
       </c>
       <c r="E160" t="n">
         <v>10.15</v>
@@ -5330,16 +5330,16 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="E161" t="n">
         <v>10.15</v>
@@ -5361,16 +5361,16 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E162" t="n">
         <v>10.15</v>
@@ -5392,7 +5392,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E163" t="n">
         <v>10.15</v>
@@ -5423,12 +5423,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -5454,12 +5454,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -5490,11 +5490,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E166" t="n">
         <v>10.15</v>
@@ -5547,12 +5547,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -5578,7 +5578,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E169" t="n">
         <v>10.15</v>
@@ -5609,16 +5609,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E170" t="n">
         <v>10.15</v>
@@ -5640,12 +5640,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5671,12 +5671,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -5702,16 +5702,16 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E173" t="n">
         <v>10.15</v>
@@ -5733,16 +5733,16 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E174" t="n">
         <v>10.15</v>
@@ -5764,7 +5764,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5826,16 +5826,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="E177" t="n">
         <v>10.15</v>
@@ -5857,7 +5857,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E178" t="n">
         <v>10.15</v>
@@ -5888,12 +5888,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5919,7 +5919,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E180" t="n">
         <v>10.15</v>
@@ -5955,11 +5955,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E181" t="n">
         <v>10.15</v>
@@ -5981,7 +5981,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5990,7 +5990,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E182" t="n">
         <v>10.15</v>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6043,16 +6043,16 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E184" t="n">
         <v>10.15</v>
@@ -6074,16 +6074,16 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E185" t="n">
         <v>10.15</v>
@@ -6105,12 +6105,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6136,16 +6136,16 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E187" t="n">
         <v>10.15</v>
@@ -6172,11 +6172,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E188" t="n">
         <v>10.15</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -6229,12 +6229,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -6260,16 +6260,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E191" t="n">
         <v>10.15</v>
@@ -6291,7 +6291,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E192" t="n">
         <v>10.15</v>
@@ -6322,16 +6322,16 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E193" t="n">
         <v>10.15</v>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E194" t="n">
         <v>10.15</v>
@@ -6384,12 +6384,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E196" t="n">
         <v>10.15</v>
@@ -6446,12 +6446,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -6508,12 +6508,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -6539,16 +6539,16 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E200" t="n">
         <v>10.15</v>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E201" t="n">
         <v>10.15</v>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C202" t="n">
